--- a/data-siswa.xlsx
+++ b/data-siswa.xlsx
@@ -20,13 +20,13 @@
     <t>DAFTAR NAMA SISWA</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ramdoni Afandi</t>
+    <t>Riki Permana</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nur Sadiah</t>
+    <t>nis</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nur Rohman</t>
+    <t>SISWA</t>
   </si>
 </sst>
 </file>
@@ -365,7 +365,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -380,25 +380,17 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1516100112</v>
+        <v>151610001</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3">
-        <v>151610022</v>
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>151610023</v>
-      </c>
-      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
